--- a/109215_31001.xlsx
+++ b/109215_31001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc Computer Science - SNUT\Capstone Project\Ares\AutoAttendance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc Computer Science - SNUT\Capstone Project\Capstone_AttendanceManagementSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26EA14-480C-4A44-8CEC-0DA7554EB73F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C3F50-4419-4745-A787-A75DDDBCAC19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>학번</t>
   </si>
@@ -34,46 +34,58 @@
     <t>출석시간</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15102993</t>
+  </si>
+  <si>
+    <t>16101384</t>
+  </si>
+  <si>
     <t>16101883</t>
   </si>
   <si>
-    <t>16101384</t>
+    <t>17101222</t>
+  </si>
+  <si>
+    <t>18101255</t>
   </si>
   <si>
     <t>18102231</t>
   </si>
   <si>
-    <t>15102993</t>
+    <t>19102395</t>
   </si>
   <si>
     <t>20101023</t>
   </si>
   <si>
-    <t>20101134</t>
-  </si>
-  <si>
-    <t>19102395</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>17101222</t>
-  </si>
-  <si>
-    <t>18101255</t>
+    <t>20101135</t>
+  </si>
+  <si>
+    <t>강동완</t>
+  </si>
+  <si>
+    <t>Ngoc Anh</t>
+  </si>
+  <si>
+    <t>응웬민뚜</t>
   </si>
   <si>
     <t>Khanh Ngan</t>
   </si>
   <si>
-    <t>응웬민뚜</t>
+    <t>안홍현</t>
+  </si>
+  <si>
+    <t>Linh</t>
   </si>
   <si>
     <t>Thanh Danh</t>
   </si>
   <si>
-    <t>Ngoc Anh</t>
+    <t>Anh Duc</t>
   </si>
   <si>
     <t>Nhim</t>
@@ -82,31 +94,22 @@
     <t>Pham Duy Thai</t>
   </si>
   <si>
-    <t>Anh Duc</t>
-  </si>
-  <si>
-    <t>강동완</t>
-  </si>
-  <si>
-    <t>안홍현</t>
-  </si>
-  <si>
-    <t>Linh</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>2020/12/28 21:30:05</t>
-  </si>
-  <si>
-    <t>2020/12/28 21:30:12</t>
-  </si>
-  <si>
-    <t>2020/12/28 21:30:25</t>
-  </si>
-  <si>
     <t>NaN</t>
+  </si>
+  <si>
+    <t>2020/12/29 00:37:01</t>
+  </si>
+  <si>
+    <t>2020/12/29 00:36:08</t>
+  </si>
+  <si>
+    <t>2020/12/29 00:36:16</t>
+  </si>
+  <si>
+    <t>2020/12/29 00:36:18</t>
   </si>
 </sst>
 </file>
@@ -510,13 +513,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,11 +557,8 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -565,6 +568,9 @@
       <c r="B4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
@@ -577,7 +583,7 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -588,7 +594,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -599,7 +605,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -624,7 +630,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -634,8 +640,11 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -649,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/109215_31001.xlsx
+++ b/109215_31001.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc Computer Science - SNUT\Capstone Project\Capstone_AttendanceManagementSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BSc Computer Science - SNUT\Capstone Project\Ares\AutoAttendance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C3F50-4419-4745-A787-A75DDDBCAC19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D633D482-41C9-4953-8AED-3BCB66CEA941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="31001" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>학번</t>
   </si>
@@ -88,9 +88,6 @@
     <t>Anh Duc</t>
   </si>
   <si>
-    <t>Nhim</t>
-  </si>
-  <si>
     <t>Pham Duy Thai</t>
   </si>
   <si>
@@ -100,16 +97,28 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>2020/12/29 00:37:01</t>
-  </si>
-  <si>
-    <t>2020/12/29 00:36:08</t>
-  </si>
-  <si>
-    <t>2020/12/29 00:36:16</t>
-  </si>
-  <si>
-    <t>2020/12/29 00:36:18</t>
+    <t>2020/12/29 07:05:14</t>
+  </si>
+  <si>
+    <t>2020/12/29 07:05:31</t>
+  </si>
+  <si>
+    <t>2020/12/29 07:05:39</t>
+  </si>
+  <si>
+    <t>과목명: 인공지능</t>
+  </si>
+  <si>
+    <t>과목코트: 109215 - 31001</t>
+  </si>
+  <si>
+    <t>교수명: 김재수</t>
+  </si>
+  <si>
+    <t>일정: 2020/12/29</t>
+  </si>
+  <si>
+    <t>Minh Thu</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -149,29 +158,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,6 +185,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B7:E17" totalsRowShown="0">
+  <autoFilter ref="B7:E17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="학번"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="이름"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="출석"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="출석시간"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -511,157 +521,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>